--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,16 +97,7 @@
     <t>Nrp2</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.3261801188088</v>
+        <v>8.549156999999999</v>
       </c>
       <c r="H2">
-        <v>7.3261801188088</v>
+        <v>25.647471</v>
       </c>
       <c r="I2">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="J2">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N2">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q2">
-        <v>175.3241659192583</v>
+        <v>292.541577232791</v>
       </c>
       <c r="R2">
-        <v>175.3241659192583</v>
+        <v>2632.874195095118</v>
       </c>
       <c r="S2">
-        <v>0.2943917859245621</v>
+        <v>0.3404658644634648</v>
       </c>
       <c r="T2">
-        <v>0.2943917859245621</v>
+        <v>0.3404658644634647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.3261801188088</v>
+        <v>8.549156999999999</v>
       </c>
       <c r="H3">
-        <v>7.3261801188088</v>
+        <v>25.647471</v>
       </c>
       <c r="I3">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="J3">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N3">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q3">
-        <v>101.4369471088917</v>
+        <v>119.319133742029</v>
       </c>
       <c r="R3">
-        <v>101.4369471088917</v>
+        <v>1073.872203678261</v>
       </c>
       <c r="S3">
-        <v>0.1703256585397039</v>
+        <v>0.1388660456430947</v>
       </c>
       <c r="T3">
-        <v>0.1703256585397039</v>
+        <v>0.1388660456430947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.3261801188088</v>
+        <v>8.549156999999999</v>
       </c>
       <c r="H4">
-        <v>7.3261801188088</v>
+        <v>25.647471</v>
       </c>
       <c r="I4">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="J4">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N4">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q4">
-        <v>100.0283166732058</v>
+        <v>123.609146320133</v>
       </c>
       <c r="R4">
-        <v>100.0283166732058</v>
+        <v>1112.482316881197</v>
       </c>
       <c r="S4">
-        <v>0.167960387172263</v>
+        <v>0.1438588499301962</v>
       </c>
       <c r="T4">
-        <v>0.167960387172263</v>
+        <v>0.1438588499301962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.3261801188088</v>
+        <v>8.549156999999999</v>
       </c>
       <c r="H5">
-        <v>7.3261801188088</v>
+        <v>25.647471</v>
       </c>
       <c r="I5">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="J5">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N5">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q5">
-        <v>74.61510465337604</v>
+        <v>90.963081774942</v>
       </c>
       <c r="R5">
-        <v>74.61510465337604</v>
+        <v>818.667735974478</v>
       </c>
       <c r="S5">
-        <v>0.1252883411746643</v>
+        <v>0.1058646930248896</v>
       </c>
       <c r="T5">
-        <v>0.1252883411746643</v>
+        <v>0.1058646930248896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.3261801188088</v>
+        <v>8.549156999999999</v>
       </c>
       <c r="H6">
-        <v>7.3261801188088</v>
+        <v>25.647471</v>
       </c>
       <c r="I6">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="J6">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N6">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q6">
-        <v>58.42904120097587</v>
+        <v>69.977944839834</v>
       </c>
       <c r="R6">
-        <v>58.42904120097587</v>
+        <v>629.8015035585059</v>
       </c>
       <c r="S6">
-        <v>0.09810986237308933</v>
+        <v>0.08144176191513394</v>
       </c>
       <c r="T6">
-        <v>0.09810986237308933</v>
+        <v>0.08144176191513394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.3261801188088</v>
+        <v>8.549156999999999</v>
       </c>
       <c r="H7">
-        <v>7.3261801188088</v>
+        <v>25.647471</v>
       </c>
       <c r="I7">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="J7">
-        <v>0.8935933973400605</v>
+        <v>0.8412959597082825</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N7">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q7">
-        <v>22.3433551544065</v>
+        <v>26.463485185931</v>
       </c>
       <c r="R7">
-        <v>22.3433551544065</v>
+        <v>238.1713666733789</v>
       </c>
       <c r="S7">
-        <v>0.03751736215577786</v>
+        <v>0.03079874473150331</v>
       </c>
       <c r="T7">
-        <v>0.03751736215577786</v>
+        <v>0.03079874473150331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.872381039561973</v>
+        <v>0.109459</v>
       </c>
       <c r="H8">
-        <v>0.872381039561973</v>
+        <v>0.328377</v>
       </c>
       <c r="I8">
-        <v>0.1064066026599396</v>
+        <v>0.01077151986490702</v>
       </c>
       <c r="J8">
-        <v>0.1064066026599396</v>
+        <v>0.01077151986490702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N8">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q8">
-        <v>20.87711135197249</v>
+        <v>3.745551579217001</v>
       </c>
       <c r="R8">
-        <v>20.87711135197249</v>
+        <v>33.709964212953</v>
       </c>
       <c r="S8">
-        <v>0.03505535054810163</v>
+        <v>0.004359149452783052</v>
       </c>
       <c r="T8">
-        <v>0.03505535054810163</v>
+        <v>0.004359149452783051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.872381039561973</v>
+        <v>0.109459</v>
       </c>
       <c r="H9">
-        <v>0.872381039561973</v>
+        <v>0.328377</v>
       </c>
       <c r="I9">
-        <v>0.1064066026599396</v>
+        <v>0.01077151986490702</v>
       </c>
       <c r="J9">
-        <v>0.1064066026599396</v>
+        <v>0.01077151986490702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N9">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q9">
-        <v>12.07882797498516</v>
+        <v>1.527700691456334</v>
       </c>
       <c r="R9">
-        <v>12.07882797498516</v>
+        <v>13.749306223107</v>
       </c>
       <c r="S9">
-        <v>0.02028190307244375</v>
+        <v>0.001777969276976374</v>
       </c>
       <c r="T9">
-        <v>0.02028190307244375</v>
+        <v>0.001777969276976374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.872381039561973</v>
+        <v>0.109459</v>
       </c>
       <c r="H10">
-        <v>0.872381039561973</v>
+        <v>0.328377</v>
       </c>
       <c r="I10">
-        <v>0.1064066026599396</v>
+        <v>0.01077151986490702</v>
       </c>
       <c r="J10">
-        <v>0.1064066026599396</v>
+        <v>0.01077151986490702</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N10">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q10">
-        <v>11.91109220219308</v>
+        <v>1.582627801437667</v>
       </c>
       <c r="R10">
-        <v>11.91109220219308</v>
+        <v>14.243650212939</v>
       </c>
       <c r="S10">
-        <v>0.02000025317291743</v>
+        <v>0.001841894569781482</v>
       </c>
       <c r="T10">
-        <v>0.02000025317291743</v>
+        <v>0.001841894569781482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.872381039561973</v>
+        <v>0.109459</v>
       </c>
       <c r="H11">
-        <v>0.872381039561973</v>
+        <v>0.328377</v>
       </c>
       <c r="I11">
-        <v>0.1064066026599396</v>
+        <v>0.01077151986490702</v>
       </c>
       <c r="J11">
-        <v>0.1064066026599396</v>
+        <v>0.01077151986490702</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N11">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q11">
-        <v>8.884957987508688</v>
+        <v>1.164644416754</v>
       </c>
       <c r="R11">
-        <v>8.884957987508688</v>
+        <v>10.481799750786</v>
       </c>
       <c r="S11">
-        <v>0.01491898527560639</v>
+        <v>0.001355436966920996</v>
       </c>
       <c r="T11">
-        <v>0.01491898527560639</v>
+        <v>0.001355436966920996</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.872381039561973</v>
+        <v>0.109459</v>
       </c>
       <c r="H12">
-        <v>0.872381039561973</v>
+        <v>0.328377</v>
       </c>
       <c r="I12">
-        <v>0.1064066026599396</v>
+        <v>0.01077151986490702</v>
       </c>
       <c r="J12">
-        <v>0.1064066026599396</v>
+        <v>0.01077151986490702</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N12">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q12">
-        <v>6.957566818846454</v>
+        <v>0.895961539158</v>
       </c>
       <c r="R12">
-        <v>6.957566818846454</v>
+        <v>8.063653852422</v>
       </c>
       <c r="S12">
-        <v>0.01168264802943913</v>
+        <v>0.001042738344548901</v>
       </c>
       <c r="T12">
-        <v>0.01168264802943913</v>
+        <v>0.001042738344548901</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.109459</v>
+      </c>
+      <c r="H13">
+        <v>0.328377</v>
+      </c>
+      <c r="I13">
+        <v>0.01077151986490702</v>
+      </c>
+      <c r="J13">
+        <v>0.01077151986490702</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.095449666666667</v>
+      </c>
+      <c r="N13">
+        <v>9.286349</v>
+      </c>
+      <c r="O13">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="P13">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="Q13">
+        <v>0.3388248250636667</v>
+      </c>
+      <c r="R13">
+        <v>3.049423425573</v>
+      </c>
+      <c r="S13">
+        <v>0.0003943312538962171</v>
+      </c>
+      <c r="T13">
+        <v>0.0003943312538962171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01655266666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.049658</v>
+      </c>
+      <c r="I14">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="J14">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>34.218763</v>
+      </c>
+      <c r="N14">
+        <v>102.656289</v>
+      </c>
+      <c r="O14">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="P14">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="Q14">
+        <v>0.5664117776846668</v>
+      </c>
+      <c r="R14">
+        <v>5.097705999162</v>
+      </c>
+      <c r="S14">
+        <v>0.0006592015991567643</v>
+      </c>
+      <c r="T14">
+        <v>0.0006592015991567642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01655266666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.049658</v>
+      </c>
+      <c r="I15">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="J15">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.95683033333333</v>
+      </c>
+      <c r="N15">
+        <v>41.870491</v>
+      </c>
+      <c r="O15">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="P15">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="Q15">
+        <v>0.2310227602308889</v>
+      </c>
+      <c r="R15">
+        <v>2.079204842078</v>
+      </c>
+      <c r="S15">
+        <v>0.0002688690083534863</v>
+      </c>
+      <c r="T15">
+        <v>0.0002688690083534863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01655266666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.049658</v>
+      </c>
+      <c r="I16">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="J16">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.45863566666667</v>
+      </c>
+      <c r="N16">
+        <v>43.375907</v>
+      </c>
+      <c r="O16">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="P16">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="Q16">
+        <v>0.2393289766451111</v>
+      </c>
+      <c r="R16">
+        <v>2.153960789806</v>
+      </c>
+      <c r="S16">
+        <v>0.0002785359527196145</v>
+      </c>
+      <c r="T16">
+        <v>0.0002785359527196145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01655266666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.049658</v>
+      </c>
+      <c r="I17">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="J17">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.640006</v>
+      </c>
+      <c r="N17">
+        <v>31.920018</v>
+      </c>
+      <c r="O17">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="P17">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="Q17">
+        <v>0.1761204726493334</v>
+      </c>
+      <c r="R17">
+        <v>1.585084253844</v>
+      </c>
+      <c r="S17">
+        <v>0.0002049726043643824</v>
+      </c>
+      <c r="T17">
+        <v>0.0002049726043643824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01655266666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.049658</v>
+      </c>
+      <c r="I18">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="J18">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.185362</v>
+      </c>
+      <c r="N18">
+        <v>24.556086</v>
+      </c>
+      <c r="O18">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="P18">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="Q18">
+        <v>0.135489568732</v>
+      </c>
+      <c r="R18">
+        <v>1.219406118588</v>
+      </c>
+      <c r="S18">
+        <v>0.0001576855282605338</v>
+      </c>
+      <c r="T18">
+        <v>0.0001576855282605338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01655266666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.049658</v>
+      </c>
+      <c r="I19">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="J19">
+        <v>0.001628896461845844</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.095449666666667</v>
+      </c>
+      <c r="N19">
+        <v>9.286349</v>
+      </c>
+      <c r="O19">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="P19">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="Q19">
+        <v>0.05123794651577778</v>
+      </c>
+      <c r="R19">
+        <v>0.461141518642</v>
+      </c>
+      <c r="S19">
+        <v>5.963176899106316E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.963176899106316E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.071113</v>
+      </c>
+      <c r="H20">
+        <v>0.213339</v>
+      </c>
+      <c r="I20">
+        <v>0.006998009228598223</v>
+      </c>
+      <c r="J20">
+        <v>0.006998009228598224</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>34.218763</v>
+      </c>
+      <c r="N20">
+        <v>102.656289</v>
+      </c>
+      <c r="O20">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="P20">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="Q20">
+        <v>2.433398893219</v>
+      </c>
+      <c r="R20">
+        <v>21.900590038971</v>
+      </c>
+      <c r="S20">
+        <v>0.002832039348393107</v>
+      </c>
+      <c r="T20">
+        <v>0.002832039348393107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.872381039561973</v>
-      </c>
-      <c r="H13">
-        <v>0.872381039561973</v>
-      </c>
-      <c r="I13">
-        <v>0.1064066026599396</v>
-      </c>
-      <c r="J13">
-        <v>0.1064066026599396</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.04979604542393</v>
-      </c>
-      <c r="N13">
-        <v>3.04979604542393</v>
-      </c>
-      <c r="O13">
-        <v>0.04198482471720914</v>
-      </c>
-      <c r="P13">
-        <v>0.04198482471720914</v>
-      </c>
-      <c r="Q13">
-        <v>2.660584244558923</v>
-      </c>
-      <c r="R13">
-        <v>2.660584244558923</v>
-      </c>
-      <c r="S13">
-        <v>0.004467462561431284</v>
-      </c>
-      <c r="T13">
-        <v>0.004467462561431284</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.071113</v>
+      </c>
+      <c r="H21">
+        <v>0.213339</v>
+      </c>
+      <c r="I21">
+        <v>0.006998009228598223</v>
+      </c>
+      <c r="J21">
+        <v>0.006998009228598224</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.95683033333333</v>
+      </c>
+      <c r="N21">
+        <v>41.870491</v>
+      </c>
+      <c r="O21">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="P21">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="Q21">
+        <v>0.9925120754943333</v>
+      </c>
+      <c r="R21">
+        <v>8.932608679449</v>
+      </c>
+      <c r="S21">
+        <v>0.001155105831348915</v>
+      </c>
+      <c r="T21">
+        <v>0.001155105831348915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.071113</v>
+      </c>
+      <c r="H22">
+        <v>0.213339</v>
+      </c>
+      <c r="I22">
+        <v>0.006998009228598223</v>
+      </c>
+      <c r="J22">
+        <v>0.006998009228598224</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.45863566666667</v>
+      </c>
+      <c r="N22">
+        <v>43.375907</v>
+      </c>
+      <c r="O22">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="P22">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="Q22">
+        <v>1.028196958163667</v>
+      </c>
+      <c r="R22">
+        <v>9.253772623472999</v>
+      </c>
+      <c r="S22">
+        <v>0.001196636626872807</v>
+      </c>
+      <c r="T22">
+        <v>0.001196636626872807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.071113</v>
+      </c>
+      <c r="H23">
+        <v>0.213339</v>
+      </c>
+      <c r="I23">
+        <v>0.006998009228598223</v>
+      </c>
+      <c r="J23">
+        <v>0.006998009228598224</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.640006</v>
+      </c>
+      <c r="N23">
+        <v>31.920018</v>
+      </c>
+      <c r="O23">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="P23">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="Q23">
+        <v>0.756642746678</v>
+      </c>
+      <c r="R23">
+        <v>6.809784720102001</v>
+      </c>
+      <c r="S23">
+        <v>0.0008805962874560588</v>
+      </c>
+      <c r="T23">
+        <v>0.0008805962874560589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.071113</v>
+      </c>
+      <c r="H24">
+        <v>0.213339</v>
+      </c>
+      <c r="I24">
+        <v>0.006998009228598223</v>
+      </c>
+      <c r="J24">
+        <v>0.006998009228598224</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.185362</v>
+      </c>
+      <c r="N24">
+        <v>24.556086</v>
+      </c>
+      <c r="O24">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="P24">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="Q24">
+        <v>0.5820856479059999</v>
+      </c>
+      <c r="R24">
+        <v>5.238770831154</v>
+      </c>
+      <c r="S24">
+        <v>0.0006774431695512108</v>
+      </c>
+      <c r="T24">
+        <v>0.0006774431695512109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.071113</v>
+      </c>
+      <c r="H25">
+        <v>0.213339</v>
+      </c>
+      <c r="I25">
+        <v>0.006998009228598223</v>
+      </c>
+      <c r="J25">
+        <v>0.006998009228598224</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.095449666666667</v>
+      </c>
+      <c r="N25">
+        <v>9.286349</v>
+      </c>
+      <c r="O25">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="P25">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="Q25">
+        <v>0.2201267121456666</v>
+      </c>
+      <c r="R25">
+        <v>1.981140409311</v>
+      </c>
+      <c r="S25">
+        <v>0.0002561879649761252</v>
+      </c>
+      <c r="T25">
+        <v>0.0002561879649761252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.415608333333333</v>
+      </c>
+      <c r="H26">
+        <v>4.246824999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="J26">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>34.218763</v>
+      </c>
+      <c r="N26">
+        <v>102.656289</v>
+      </c>
+      <c r="O26">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="P26">
+        <v>0.4046921425624349</v>
+      </c>
+      <c r="Q26">
+        <v>48.44036605915833</v>
+      </c>
+      <c r="R26">
+        <v>435.9632945324249</v>
+      </c>
+      <c r="S26">
+        <v>0.05637588769863718</v>
+      </c>
+      <c r="T26">
+        <v>0.05637588769863718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.415608333333333</v>
+      </c>
+      <c r="H27">
+        <v>4.246824999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="J27">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.95683033333333</v>
+      </c>
+      <c r="N27">
+        <v>41.870491</v>
+      </c>
+      <c r="O27">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="P27">
+        <v>0.165062061740135</v>
+      </c>
+      <c r="Q27">
+        <v>19.75740532678611</v>
+      </c>
+      <c r="R27">
+        <v>177.816647941075</v>
+      </c>
+      <c r="S27">
+        <v>0.02299407198036156</v>
+      </c>
+      <c r="T27">
+        <v>0.02299407198036156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.415608333333333</v>
+      </c>
+      <c r="H28">
+        <v>4.246824999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="J28">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>14.45863566666667</v>
+      </c>
+      <c r="N28">
+        <v>43.375907</v>
+      </c>
+      <c r="O28">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="P28">
+        <v>0.1709967203219173</v>
+      </c>
+      <c r="Q28">
+        <v>20.46776513836388</v>
+      </c>
+      <c r="R28">
+        <v>184.209886245275</v>
+      </c>
+      <c r="S28">
+        <v>0.02382080324234719</v>
+      </c>
+      <c r="T28">
+        <v>0.02382080324234719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.415608333333333</v>
+      </c>
+      <c r="H29">
+        <v>4.246824999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="J29">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10.640006</v>
+      </c>
+      <c r="N29">
+        <v>31.920018</v>
+      </c>
+      <c r="O29">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="P29">
+        <v>0.1258352566694817</v>
+      </c>
+      <c r="Q29">
+        <v>15.06208116031667</v>
+      </c>
+      <c r="R29">
+        <v>135.55873044285</v>
+      </c>
+      <c r="S29">
+        <v>0.01752955778585058</v>
+      </c>
+      <c r="T29">
+        <v>0.01752955778585058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.415608333333333</v>
+      </c>
+      <c r="H30">
+        <v>4.246824999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="J30">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.185362</v>
+      </c>
+      <c r="N30">
+        <v>24.556086</v>
+      </c>
+      <c r="O30">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="P30">
+        <v>0.09680512663269379</v>
+      </c>
+      <c r="Q30">
+        <v>11.58726665855</v>
+      </c>
+      <c r="R30">
+        <v>104.28539992695</v>
+      </c>
+      <c r="S30">
+        <v>0.01348549767519919</v>
+      </c>
+      <c r="T30">
+        <v>0.01348549767519919</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.415608333333333</v>
+      </c>
+      <c r="H31">
+        <v>4.246824999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="J31">
+        <v>0.1393056147363663</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.095449666666667</v>
+      </c>
+      <c r="N31">
+        <v>9.286349</v>
+      </c>
+      <c r="O31">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="P31">
+        <v>0.03660869207333731</v>
+      </c>
+      <c r="Q31">
+        <v>4.381944343547222</v>
+      </c>
+      <c r="R31">
+        <v>39.43749909192499</v>
+      </c>
+      <c r="S31">
+        <v>0.005099796353970594</v>
+      </c>
+      <c r="T31">
+        <v>0.005099796353970594</v>
       </c>
     </row>
   </sheetData>
